--- a/Travelling Salesman - Branch & Bound - Eksempel.xlsx
+++ b/Travelling Salesman - Branch & Bound - Eksempel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/adma24ac_student_cbs_dk/Documents/Skrivebord/Operationsanalyse/Eksamen/OA_HA_MAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="8_{27D6EFDE-8D1E-4B20-8108-64FAACEF211F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0DAC275-F194-44A6-B090-E4171294980D}"/>
+  <xr:revisionPtr revIDLastSave="1262" documentId="8_{27D6EFDE-8D1E-4B20-8108-64FAACEF211F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C77BFD-DA42-477E-81CA-8820ED428AE7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{032F5708-7A66-4500-9F2E-8B8CE2AB77AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{032F5708-7A66-4500-9F2E-8B8CE2AB77AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Traveling Salesman" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Northwest corner" sheetId="3" r:id="rId3"/>
     <sheet name="Vogels appoksimation" sheetId="5" r:id="rId4"/>
     <sheet name="Minimum column" sheetId="6" r:id="rId5"/>
+    <sheet name="TSP branch and bound" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Traveling Salesman'!$N$23:$S$28</definedName>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="172">
   <si>
     <t>Først reduceres matricen - både rækker og søjler</t>
   </si>
@@ -475,13 +476,160 @@
   </si>
   <si>
     <t>Og alle andre variable skal være nul. Her bliver objektfunktionen</t>
+  </si>
+  <si>
+    <t>wh</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Finder min i hver række og fratrækker</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Finder også min i hver søjle og fratrækker</t>
+  </si>
+  <si>
+    <t>Den mindste mulig omkostning er summen af række min og søjle min:</t>
+  </si>
+  <si>
+    <t>Da kan vi tegne første branch i vores branching tree</t>
+  </si>
+  <si>
+    <t>Dette er en reduced matrix, da hver række og søjle har mindst et nulelement.</t>
+  </si>
+  <si>
+    <t>Vi har perspektivet at vi er startet i ca, og nu kigger vi på hvad der skal ske herfra:</t>
+  </si>
+  <si>
+    <t>Vi ser hvad der sker hvis vi tager fra ca til wh</t>
+  </si>
+  <si>
+    <t>Da skal vi ikke til wh igen, så vi laver denne søjle til inf</t>
+  </si>
+  <si>
+    <t>Vi skal heller ikke til fra ca igen, så vi laver denne række til inf</t>
+  </si>
+  <si>
+    <t>Vi skal heller ikke fra wh tilbage til ca, så denne bliver også inf</t>
+  </si>
+  <si>
+    <t>Er dette en reduced matrix?</t>
+  </si>
+  <si>
+    <t>Vi finder min i hver række og søjle</t>
+  </si>
+  <si>
+    <t>Det nye omkostninger bliver de gamle + hvor meget det koster at tage turen. Det bliver</t>
+  </si>
+  <si>
+    <t>Det er ikke en reduced matrix (2.5) og dermed skal vi lægge sum af min i række og søjle til</t>
+  </si>
+  <si>
+    <t>Vi tilføjer dette til vores træ</t>
+  </si>
+  <si>
+    <t>træet står som:</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>omkostninger</t>
+  </si>
+  <si>
+    <t>fra ca til ta</t>
+  </si>
+  <si>
+    <t>Omkostninger</t>
+  </si>
+  <si>
+    <t>fa ca til kr</t>
+  </si>
+  <si>
+    <t>Fra ca til cr</t>
+  </si>
+  <si>
+    <t>Reducerer matricen</t>
+  </si>
+  <si>
+    <t>Reduceret</t>
+  </si>
+  <si>
+    <t>Vi går fra ca til kr, da det er her de laveste omkostninger her</t>
+  </si>
+  <si>
+    <t>Nu kan vi gå fra kr til wh, ta eller cr</t>
+  </si>
+  <si>
+    <t>fra ca til kr til wh</t>
+  </si>
+  <si>
+    <t>(vi skal ikke tilbage til ca)</t>
+  </si>
+  <si>
+    <t>Reduced matrix</t>
+  </si>
+  <si>
+    <t>omkostninger (vi vælger omkostningen fra den forrige reduced, altså den som er i dette branch)</t>
+  </si>
+  <si>
+    <t>Fra ca til kr til ta</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Fra ca til kr til cr</t>
+  </si>
+  <si>
+    <t>Her er den laveste omkostninger</t>
+  </si>
+  <si>
+    <t>Vi går videre herfra (til højre ses forstættelsen)</t>
+  </si>
+  <si>
+    <t>Fra ca til kr til cr til wh</t>
+  </si>
+  <si>
+    <t>Fra ca til kr til cr til ta</t>
+  </si>
+  <si>
+    <t>omkostninger (for at reducere den, skal vi trække 2.5 fra)</t>
+  </si>
+  <si>
+    <t>Da der herfra kun er en mulighed, er vi færdige. Se branching tree for optimal rute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca &gt; kr &gt; cr &gt; ta &gt; wh &gt; ca </t>
+  </si>
+  <si>
+    <t>samlede omkostninger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +645,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +721,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -828,10 +990,115 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1050,6 +1317,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1069,6 +1347,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1164,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1225,6 +1514,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,6 +1540,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,7 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1273,37 +1593,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1324,22 +1626,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1354,61 +1650,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,39 +1752,49 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,6 +2026,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3303841" cy="1069622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361593</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4C6B0A-B51A-185E-9F3D-0C84AE4D2165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028096" y="0"/>
+          <a:ext cx="4776354" cy="1521279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8712,10 +9103,10 @@
       <c r="O30" s="35"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="42" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8902,10 +9293,10 @@
       <c r="O37" s="35"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="J39" s="42" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9092,12 +9483,12 @@
       <c r="O44" s="35"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="44" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="44" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9176,34 +9567,34 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="94">
         <v>1</v>
       </c>
-      <c r="D7" s="69">
-        <v>2</v>
-      </c>
-      <c r="E7" s="69">
+      <c r="D7" s="82">
+        <v>2</v>
+      </c>
+      <c r="E7" s="82">
         <v>3</v>
       </c>
-      <c r="F7" s="77">
-        <v>4</v>
-      </c>
-      <c r="G7" s="78" t="s">
+      <c r="F7" s="92">
+        <v>4</v>
+      </c>
+      <c r="G7" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="76">
+      <c r="B8" s="91">
         <v>1</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="71">
+      <c r="C8" s="65"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="84">
         <v>5</v>
       </c>
       <c r="J8" s="35">
@@ -9220,14 +9611,14 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="72">
-        <v>2</v>
-      </c>
-      <c r="C9" s="45"/>
+      <c r="B9" s="85">
+        <v>2</v>
+      </c>
+      <c r="C9" s="46"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="72">
+      <c r="F9" s="45"/>
+      <c r="G9" s="85">
         <v>2</v>
       </c>
       <c r="J9" s="35">
@@ -9244,14 +9635,14 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="73">
+      <c r="B10" s="86">
         <v>3</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="73">
+      <c r="C10" s="95"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="86">
         <v>3</v>
       </c>
       <c r="J10" s="35">
@@ -9268,22 +9659,22 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="96">
         <v>3</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="88">
         <v>3</v>
       </c>
-      <c r="E11" s="74">
-        <v>2</v>
-      </c>
-      <c r="F11" s="75">
-        <v>2</v>
-      </c>
-      <c r="G11" s="82"/>
+      <c r="E11" s="88">
+        <v>2</v>
+      </c>
+      <c r="F11" s="89">
+        <v>2</v>
+      </c>
+      <c r="G11" s="97"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -9302,40 +9693,40 @@
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="94">
         <v>1</v>
       </c>
-      <c r="D17" s="69">
-        <v>2</v>
-      </c>
-      <c r="E17" s="69">
+      <c r="D17" s="82">
+        <v>2</v>
+      </c>
+      <c r="E17" s="82">
         <v>3</v>
       </c>
-      <c r="F17" s="77">
-        <v>4</v>
-      </c>
-      <c r="G17" s="67" t="s">
+      <c r="F17" s="92">
+        <v>4</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="99" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="76">
+      <c r="B18" s="91">
         <v>1</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="61">
+      <c r="C18" s="65"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="74">
         <v>5</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="84">
         <v>1</v>
       </c>
       <c r="J18" s="35">
@@ -9352,19 +9743,19 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="72">
-        <v>2</v>
-      </c>
-      <c r="C19" s="45"/>
+      <c r="B19" s="85">
+        <v>2</v>
+      </c>
+      <c r="C19" s="46"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34">
         <v>2</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="62">
-        <v>2</v>
-      </c>
-      <c r="H19" s="72">
+      <c r="F19" s="45"/>
+      <c r="G19" s="75">
+        <v>2</v>
+      </c>
+      <c r="H19" s="85">
         <v>0</v>
       </c>
       <c r="J19" s="35">
@@ -9381,17 +9772,17 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="73">
+      <c r="B20" s="86">
         <v>3</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="63">
+      <c r="C20" s="66"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="76">
         <v>3</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="86">
         <v>1</v>
       </c>
       <c r="J20" s="35">
@@ -9408,38 +9799,38 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="77">
         <v>3</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="78">
         <v>3</v>
       </c>
-      <c r="E21" s="65">
-        <v>2</v>
-      </c>
-      <c r="F21" s="66">
-        <v>2</v>
-      </c>
-      <c r="G21" s="49"/>
+      <c r="E21" s="78">
+        <v>2</v>
+      </c>
+      <c r="F21" s="79">
+        <v>2</v>
+      </c>
+      <c r="G21" s="60"/>
       <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="81">
         <v>1</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="82">
         <v>1</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="101">
         <v>3</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="83">
         <v>2</v>
       </c>
       <c r="G22" s="40"/>
@@ -9452,50 +9843,50 @@
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="50"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="103">
         <v>1</v>
       </c>
-      <c r="D26" s="89">
-        <v>2</v>
-      </c>
-      <c r="E26" s="89">
+      <c r="D26" s="104">
+        <v>2</v>
+      </c>
+      <c r="E26" s="104">
         <v>3</v>
       </c>
-      <c r="F26" s="90">
-        <v>4</v>
-      </c>
-      <c r="G26" s="91" t="s">
+      <c r="F26" s="105">
+        <v>4</v>
+      </c>
+      <c r="G26" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
-      <c r="B27" s="103">
+      <c r="A27" s="61"/>
+      <c r="B27" s="118">
         <v>1</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107">
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122">
         <v>5</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="123">
         <v>1</v>
       </c>
-      <c r="I27" s="50"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="35">
         <v>3</v>
       </c>
@@ -9510,23 +9901,23 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="50"/>
-      <c r="B28" s="93">
+      <c r="A28" s="61"/>
+      <c r="B28" s="108">
         <v>3</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="109">
+      <c r="C28" s="109"/>
+      <c r="D28" s="124">
         <v>3</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="95">
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="110">
         <v>3</v>
       </c>
-      <c r="H28" s="93">
+      <c r="H28" s="108">
         <v>1</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="35">
         <v>4</v>
       </c>
@@ -9541,123 +9932,123 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="97">
+      <c r="C29" s="112">
         <v>3</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="113">
         <v>3</v>
       </c>
-      <c r="E29" s="98">
-        <v>0</v>
-      </c>
-      <c r="F29" s="99">
-        <v>2</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
+      <c r="E29" s="113">
+        <v>0</v>
+      </c>
+      <c r="F29" s="114">
+        <v>2</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="50"/>
-      <c r="B30" s="100" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="101">
+      <c r="C30" s="116">
         <v>1</v>
       </c>
-      <c r="D30" s="86">
-        <v>4</v>
-      </c>
-      <c r="E30" s="89">
-        <v>2</v>
-      </c>
-      <c r="F30" s="102">
+      <c r="D30" s="101">
+        <v>4</v>
+      </c>
+      <c r="E30" s="104">
+        <v>2</v>
+      </c>
+      <c r="F30" s="117">
         <v>1</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="103">
         <v>1</v>
       </c>
-      <c r="D33" s="89">
-        <v>2</v>
-      </c>
-      <c r="E33" s="89">
+      <c r="D33" s="104">
+        <v>2</v>
+      </c>
+      <c r="E33" s="104">
         <v>3</v>
       </c>
-      <c r="F33" s="90">
-        <v>4</v>
-      </c>
-      <c r="G33" s="91" t="s">
+      <c r="F33" s="105">
+        <v>4</v>
+      </c>
+      <c r="G33" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="92" t="s">
+      <c r="H33" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="110">
+      <c r="B34" s="125">
         <v>1</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="119">
         <v>3</v>
       </c>
-      <c r="D34" s="105">
-        <v>0</v>
-      </c>
-      <c r="E34" s="105">
-        <v>0</v>
-      </c>
-      <c r="F34" s="106">
-        <v>2</v>
-      </c>
-      <c r="G34" s="100">
+      <c r="D34" s="120">
+        <v>0</v>
+      </c>
+      <c r="E34" s="120">
+        <v>0</v>
+      </c>
+      <c r="F34" s="121">
+        <v>2</v>
+      </c>
+      <c r="G34" s="115">
         <v>5</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="102">
         <v>1</v>
       </c>
-      <c r="I34" s="50"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="35">
         <v>3</v>
       </c>
@@ -9672,52 +10063,52 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="97">
+      <c r="C35" s="112">
         <v>3</v>
       </c>
-      <c r="D35" s="98">
-        <v>0</v>
-      </c>
-      <c r="E35" s="98">
-        <v>0</v>
-      </c>
-      <c r="F35" s="99">
-        <v>2</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
+      <c r="D35" s="113">
+        <v>0</v>
+      </c>
+      <c r="E35" s="113">
+        <v>0</v>
+      </c>
+      <c r="F35" s="114">
+        <v>2</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="116">
         <v>1</v>
       </c>
-      <c r="D36" s="89">
-        <v>4</v>
-      </c>
-      <c r="E36" s="89">
-        <v>2</v>
-      </c>
-      <c r="F36" s="102">
+      <c r="D36" s="104">
+        <v>4</v>
+      </c>
+      <c r="E36" s="104">
+        <v>2</v>
+      </c>
+      <c r="F36" s="117">
         <v>1</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
@@ -9798,7 +10189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7401E6-D3FF-458D-845E-29B88F04A407}">
   <dimension ref="B9:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:M54"/>
     </sheetView>
   </sheetViews>
@@ -9811,34 +10202,34 @@
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="94">
         <v>1</v>
       </c>
-      <c r="D11" s="69">
-        <v>2</v>
-      </c>
-      <c r="E11" s="69">
+      <c r="D11" s="82">
+        <v>2</v>
+      </c>
+      <c r="E11" s="82">
         <v>3</v>
       </c>
-      <c r="F11" s="77">
-        <v>4</v>
-      </c>
-      <c r="G11" s="78" t="s">
+      <c r="F11" s="92">
+        <v>4</v>
+      </c>
+      <c r="G11" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="76">
+      <c r="B12" s="91">
         <v>1</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="71">
+      <c r="C12" s="65"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="84">
         <v>5</v>
       </c>
       <c r="J12" s="35">
@@ -9855,14 +10246,14 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="72">
-        <v>2</v>
-      </c>
-      <c r="C13" s="45"/>
+      <c r="B13" s="85">
+        <v>2</v>
+      </c>
+      <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="72">
+      <c r="F13" s="45"/>
+      <c r="G13" s="85">
         <v>2</v>
       </c>
       <c r="J13" s="35">
@@ -9879,14 +10270,14 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="73">
+      <c r="B14" s="86">
         <v>3</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="73">
+      <c r="C14" s="95"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="86">
         <v>3</v>
       </c>
       <c r="J14" s="35">
@@ -9903,22 +10294,22 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="96">
         <v>3</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="88">
         <v>3</v>
       </c>
-      <c r="E15" s="74">
-        <v>2</v>
-      </c>
-      <c r="F15" s="75">
-        <v>2</v>
-      </c>
-      <c r="G15" s="82"/>
+      <c r="E15" s="88">
+        <v>2</v>
+      </c>
+      <c r="F15" s="89">
+        <v>2</v>
+      </c>
+      <c r="G15" s="97"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
@@ -9936,34 +10327,34 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="112">
+      <c r="C20" s="127">
         <v>1</v>
       </c>
-      <c r="D20" s="69">
-        <v>2</v>
-      </c>
-      <c r="E20" s="69">
+      <c r="D20" s="82">
+        <v>2</v>
+      </c>
+      <c r="E20" s="82">
         <v>3</v>
       </c>
-      <c r="F20" s="77">
-        <v>4</v>
-      </c>
-      <c r="G20" s="78" t="s">
+      <c r="F20" s="92">
+        <v>4</v>
+      </c>
+      <c r="G20" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="76">
+      <c r="B21" s="91">
         <v>1</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="71">
+      <c r="C21" s="65"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="84">
         <v>5</v>
       </c>
       <c r="J21" s="35">
@@ -9980,16 +10371,16 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="111">
-        <v>2</v>
-      </c>
-      <c r="C22" s="57">
+      <c r="B22" s="126">
+        <v>2</v>
+      </c>
+      <c r="C22" s="68">
         <v>2</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="111">
+      <c r="F22" s="45"/>
+      <c r="G22" s="126">
         <f>G13-C22</f>
         <v>0</v>
       </c>
@@ -10007,14 +10398,14 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="73">
+      <c r="B23" s="86">
         <v>3</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="73">
+      <c r="C23" s="95"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="86">
         <v>3</v>
       </c>
       <c r="J23" s="35">
@@ -10031,23 +10422,23 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="128">
         <f>C15-C22</f>
         <v>1</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="88">
         <v>3</v>
       </c>
-      <c r="E24" s="74">
-        <v>2</v>
-      </c>
-      <c r="F24" s="75">
-        <v>2</v>
-      </c>
-      <c r="G24" s="82"/>
+      <c r="E24" s="88">
+        <v>2</v>
+      </c>
+      <c r="F24" s="89">
+        <v>2</v>
+      </c>
+      <c r="G24" s="97"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -10056,36 +10447,36 @@
     </row>
     <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="112">
+      <c r="C29" s="127">
         <v>1</v>
       </c>
-      <c r="D29" s="69">
-        <v>2</v>
-      </c>
-      <c r="E29" s="69">
+      <c r="D29" s="82">
+        <v>2</v>
+      </c>
+      <c r="E29" s="82">
         <v>3</v>
       </c>
-      <c r="F29" s="70">
-        <v>4</v>
-      </c>
-      <c r="G29" s="78" t="s">
+      <c r="F29" s="83">
+        <v>4</v>
+      </c>
+      <c r="G29" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="114">
+      <c r="B30" s="129">
         <v>1</v>
       </c>
-      <c r="C30" s="115">
+      <c r="C30" s="130">
         <v>1</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="114">
+      <c r="D30" s="65"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="129">
         <v>4</v>
       </c>
       <c r="J30" s="34">
@@ -10102,14 +10493,14 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="73">
+      <c r="B31" s="86">
         <v>3</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="73">
+      <c r="C31" s="95"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="86">
         <v>3</v>
       </c>
       <c r="J31" s="35">
@@ -10126,22 +10517,22 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="113">
-        <v>0</v>
-      </c>
-      <c r="D32" s="74">
+      <c r="C32" s="128">
+        <v>0</v>
+      </c>
+      <c r="D32" s="88">
         <v>3</v>
       </c>
-      <c r="E32" s="74">
-        <v>2</v>
-      </c>
-      <c r="F32" s="75">
-        <v>2</v>
-      </c>
-      <c r="G32" s="82"/>
+      <c r="E32" s="88">
+        <v>2</v>
+      </c>
+      <c r="F32" s="89">
+        <v>2</v>
+      </c>
+      <c r="G32" s="97"/>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
@@ -10149,30 +10540,30 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="86">
-        <v>2</v>
-      </c>
-      <c r="E35" s="69">
+      <c r="D35" s="101">
+        <v>2</v>
+      </c>
+      <c r="E35" s="82">
         <v>3</v>
       </c>
-      <c r="F35" s="77">
-        <v>4</v>
-      </c>
-      <c r="G35" s="78" t="s">
+      <c r="F35" s="92">
+        <v>4</v>
+      </c>
+      <c r="G35" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="103">
+      <c r="C36" s="118">
         <v>1</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="108">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="123">
         <v>4</v>
       </c>
       <c r="K36" s="35">
@@ -10186,15 +10577,15 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="116">
+      <c r="C37" s="131">
         <v>3</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="71">
         <v>3</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="116">
+      <c r="E37" s="55"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="131">
         <v>0</v>
       </c>
       <c r="K37" s="34">
@@ -10208,19 +10599,19 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="117">
-        <v>0</v>
-      </c>
-      <c r="E38" s="74">
-        <v>2</v>
-      </c>
-      <c r="F38" s="75">
-        <v>2</v>
-      </c>
-      <c r="G38" s="82"/>
+      <c r="D38" s="132">
+        <v>0</v>
+      </c>
+      <c r="E38" s="88">
+        <v>2</v>
+      </c>
+      <c r="F38" s="89">
+        <v>2</v>
+      </c>
+      <c r="G38" s="97"/>
     </row>
     <row r="40" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
@@ -10228,36 +10619,36 @@
       </c>
     </row>
     <row r="41" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="86">
-        <v>2</v>
-      </c>
-      <c r="E41" s="69">
+      <c r="D41" s="101">
+        <v>2</v>
+      </c>
+      <c r="E41" s="82">
         <v>3</v>
       </c>
-      <c r="F41" s="77">
-        <v>4</v>
-      </c>
-      <c r="G41" s="78" t="s">
+      <c r="F41" s="92">
+        <v>4</v>
+      </c>
+      <c r="G41" s="93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C42" s="103">
+      <c r="C42" s="118">
         <v>1</v>
       </c>
-      <c r="D42" s="47">
-        <v>0</v>
-      </c>
-      <c r="E42" s="47">
-        <v>2</v>
-      </c>
-      <c r="F42" s="56">
-        <v>2</v>
-      </c>
-      <c r="G42" s="108">
+      <c r="D42" s="48">
+        <v>0</v>
+      </c>
+      <c r="E42" s="48">
+        <v>2</v>
+      </c>
+      <c r="F42" s="67">
+        <v>2</v>
+      </c>
+      <c r="G42" s="123">
         <v>4</v>
       </c>
       <c r="K42" s="35">
@@ -10271,19 +10662,19 @@
       </c>
     </row>
     <row r="43" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="117">
-        <v>0</v>
-      </c>
-      <c r="E43" s="74">
-        <v>2</v>
-      </c>
-      <c r="F43" s="75">
-        <v>2</v>
-      </c>
-      <c r="G43" s="82"/>
+      <c r="D43" s="132">
+        <v>0</v>
+      </c>
+      <c r="E43" s="88">
+        <v>2</v>
+      </c>
+      <c r="F43" s="89">
+        <v>2</v>
+      </c>
+      <c r="G43" s="97"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
@@ -10347,6 +10738,3639 @@
       <c r="B54">
         <f>J22*C22+C30*J30+D37*K37+D42*K42+E42*L42+F42*M42</f>
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC998059-BCBE-4D76-947B-4050138B94A6}">
+  <dimension ref="A8:AZ98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="21" workbookViewId="0">
+      <selection activeCell="BV24" sqref="BV24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="8" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>138</v>
+      </c>
+      <c r="X10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="3:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="134"/>
+      <c r="V12" s="134"/>
+    </row>
+    <row r="13" spans="3:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="93"/>
+      <c r="D13" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="134"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="V13" s="134"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z13" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA13" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC13" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ13" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK13" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM13" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO13" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT13" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU13" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV13" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW13" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY13" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C14" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="50">
+        <v>16</v>
+      </c>
+      <c r="F14" s="50">
+        <v>10</v>
+      </c>
+      <c r="G14" s="50">
+        <v>12</v>
+      </c>
+      <c r="H14" s="51">
+        <v>11.5</v>
+      </c>
+      <c r="J14">
+        <f>MIN(D14:H14)</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="134"/>
+      <c r="M14" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="T14">
+        <f>MIN(N14:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="134"/>
+      <c r="X14" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE14">
+        <f>MIN(Y14:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO14">
+        <f>MIN(AI14:AM14)</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY14">
+        <f>MIN(AS14:AW14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C15" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="52">
+        <v>12</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="33">
+        <v>10</v>
+      </c>
+      <c r="G15" s="33">
+        <v>12</v>
+      </c>
+      <c r="H15" s="53">
+        <v>10.5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J18" si="0">MIN(D15:H15)</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="134"/>
+      <c r="M15" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="R15" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T18" si="1">MIN(N15:R15)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="134"/>
+      <c r="X15" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y15" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AC15" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" ref="AE15:AE18" si="2">MIN(Y15:AC15)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI15" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM15" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" ref="AO15:AO18" si="3">MIN(AI15:AM15)</f>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS15" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AW15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" ref="AY15:AY18" si="4">MIN(AS15:AW15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="52">
+        <v>12</v>
+      </c>
+      <c r="E16" s="33">
+        <v>10</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="33">
+        <v>8</v>
+      </c>
+      <c r="H16" s="53">
+        <v>7.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="L16" s="134"/>
+      <c r="M16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>0</v>
+      </c>
+      <c r="R16" s="53">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="134"/>
+      <c r="X16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y16" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI16" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AJ16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM16" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS16" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AT16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="C17" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="52">
+        <v>16</v>
+      </c>
+      <c r="E17" s="33">
+        <v>12</v>
+      </c>
+      <c r="F17" s="33">
+        <v>10</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="53">
+        <v>8.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="L17" s="134"/>
+      <c r="M17" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="53">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="134"/>
+      <c r="X17" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y17" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="Z17" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI17" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ17" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AL17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM17" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS17" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="AT17" s="33">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AV17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW17" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="54">
+        <v>13.5</v>
+      </c>
+      <c r="E18" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="F18" s="55">
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="L18" s="134"/>
+      <c r="M18" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="54">
+        <v>6</v>
+      </c>
+      <c r="O18" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="134"/>
+      <c r="X18" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y18" s="54">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AA18" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB18" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="AC18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH18" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI18" s="54">
+        <v>6</v>
+      </c>
+      <c r="AJ18" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AK18" s="55">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS18" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT18" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="AW18" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="L19" s="134"/>
+      <c r="V19" s="134"/>
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="134"/>
+      <c r="M20" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20">
+        <f>MIN(N14:N18)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:R20" si="5">MIN(O14:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="134"/>
+      <c r="X20" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y20">
+        <f>MIN(Y14:Y18)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20:AC20" si="6">MIN(Z14:Z18)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI20">
+        <f>MIN(AI14:AI18)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" ref="AJ20:AM20" si="7">MIN(AJ14:AJ18)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS20">
+        <f>MIN(AS14:AS18)</f>
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" ref="AT20:AW20" si="8">MIN(AT14:AT18)</f>
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="AR21" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="93"/>
+      <c r="D22" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="134"/>
+      <c r="M22" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="V22" s="134"/>
+      <c r="X22" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH22" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR22">
+        <f>H34+J47+1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="50">
+        <f>E14-$J14</f>
+        <v>6</v>
+      </c>
+      <c r="F23" s="50">
+        <f t="shared" ref="F23:H24" si="9">F14-$J14</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="51">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="X23">
+        <f>F34+J47+SUM(Y20:AC20)+SUM(AE14:AE18)</f>
+        <v>49</v>
+      </c>
+      <c r="AH23">
+        <f>G34+J47+0</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="52">
+        <f>D15-$J15</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
+        <f>G15-$J15</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="53">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="134"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="V24" s="134"/>
+      <c r="X24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="52">
+        <f t="shared" ref="D25:G27" si="10">D16-$J16</f>
+        <v>4.5</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="33">
+        <f>G16-$J16</f>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="53">
+        <f>H16-$J16</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="134"/>
+      <c r="M25" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="O25" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="R25" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="134"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z25" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA25" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB25" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC25" s="79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="52">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" ref="E26" si="11">E17-$J17</f>
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="53">
+        <f>H17-$J17</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="134"/>
+      <c r="M26" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="R26" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="V26" s="134"/>
+      <c r="X26" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y26" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z26" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA26" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB26" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC26" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR26" s="93"/>
+      <c r="AS26" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT26" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU26" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV26" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW26" s="79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="54">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E27" s="55">
+        <f t="shared" ref="E27" si="12">E18-$J18</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="134"/>
+      <c r="M27" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="52">
+        <f t="shared" ref="N27:N28" si="13">N16-N$20</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>0</v>
+      </c>
+      <c r="R27" s="53">
+        <v>0</v>
+      </c>
+      <c r="V27" s="134"/>
+      <c r="X27" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y27" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB27" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AC27" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AR27" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS27" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT27" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU27" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV27" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW27" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="L28" s="134"/>
+      <c r="M28" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28" s="52">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="R28" s="53">
+        <v>0</v>
+      </c>
+      <c r="V28" s="134"/>
+      <c r="X28" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y28" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS28" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU28" s="33">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AW28" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="41">
+        <f>MIN(D23:D27)</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="41">
+        <f t="shared" ref="E29:H29" si="14">MIN(E23:E27)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="134"/>
+      <c r="M29" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="54">
+        <f>N18-N$20</f>
+        <v>3.5</v>
+      </c>
+      <c r="O29" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="R29" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="V29" s="134"/>
+      <c r="X29" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y29" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="Z29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB29" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC29" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS29" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AT29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="X30" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y30" s="55">
+        <f>Y18-$AE$18</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z30" s="55">
+        <f>Z18-$AE$18</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB30" s="55">
+        <f>AB18-$AE$18</f>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR30" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS30" s="33">
+        <f t="shared" ref="AS30:AT30" si="15">AS17-$AY$17</f>
+        <v>4.5</v>
+      </c>
+      <c r="AT30" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="33">
+        <f>AU17-$AY$17</f>
+        <v>0.5</v>
+      </c>
+      <c r="AV30" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW30" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="134"/>
+      <c r="M31" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="V31" s="134"/>
+      <c r="AR31" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS31" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT31" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AU31" s="55">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="AW31" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="134"/>
+      <c r="M32" t="s">
+        <v>141</v>
+      </c>
+      <c r="V32" s="134"/>
+    </row>
+    <row r="33" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="93"/>
+      <c r="D33" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" s="134"/>
+      <c r="M33" t="s">
+        <v>143</v>
+      </c>
+      <c r="V33" s="134"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C34" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="50">
+        <f>E23-E$29</f>
+        <v>3.5</v>
+      </c>
+      <c r="F34" s="50">
+        <f t="shared" ref="F34:H37" si="16">F23-F$29</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="50">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="H34" s="51">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="L34" s="134"/>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="V34" s="134"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C35" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="52">
+        <f>D24-D$29</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="33">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="134"/>
+      <c r="M35">
+        <f>J40+E34+SUM(N20:R20)+SUM(T14:T18)</f>
+        <v>52.5</v>
+      </c>
+      <c r="V35" s="134"/>
+      <c r="AF35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C36" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="52">
+        <f t="shared" ref="D36:E36" si="17">D25-D$29</f>
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="134"/>
+      <c r="M36" t="s">
+        <v>144</v>
+      </c>
+      <c r="V36" s="134"/>
+      <c r="AF36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C37" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="52">
+        <f t="shared" ref="D37:G38" si="18">D26-D$29</f>
+        <v>5.5</v>
+      </c>
+      <c r="E37" s="33">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="33">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="134"/>
+      <c r="V37" s="134"/>
+    </row>
+    <row r="38" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="54">
+        <f t="shared" ref="D38" si="19">D27-D$29</f>
+        <v>6</v>
+      </c>
+      <c r="E38" s="55">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+      <c r="F38" s="55">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="55">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="H38" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="AH38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="L39" s="134"/>
+      <c r="V39" s="134"/>
+    </row>
+    <row r="40" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40">
+        <f>SUM(D29:H29)+SUM(J14:J18)</f>
+        <v>46.5</v>
+      </c>
+      <c r="L40" s="134"/>
+      <c r="V40" s="134"/>
+    </row>
+    <row r="41" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" s="134"/>
+      <c r="V41" s="134"/>
+      <c r="AH41" s="93"/>
+      <c r="AI41" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ41" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK41" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL41" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM41" s="79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="L42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="AH42" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI42" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ42" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK42" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL42" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM42" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A43" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="134"/>
+      <c r="V43" s="134"/>
+      <c r="AH43" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI43" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK43" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM43" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A44" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="V44" s="134"/>
+      <c r="AH44" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI44" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AJ44" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL44" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM44" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="V45" s="134"/>
+      <c r="AH45" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI45" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="AL45" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM45" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="137">
+        <v>1</v>
+      </c>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="V46" s="134"/>
+      <c r="AH46" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI46" s="54">
+        <v>6</v>
+      </c>
+      <c r="AJ46" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AK46" s="55">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM46" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ46" s="61"/>
+    </row>
+    <row r="47" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="133"/>
+      <c r="G47" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" s="48">
+        <f>J40</f>
+        <v>46.5</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" s="60"/>
+      <c r="M47" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" s="133"/>
+      <c r="V47" s="134"/>
+      <c r="AZ47" s="61"/>
+    </row>
+    <row r="48" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G48" s="93">
+        <v>2</v>
+      </c>
+      <c r="H48" s="135"/>
+      <c r="I48" s="93">
+        <v>3</v>
+      </c>
+      <c r="J48" s="135"/>
+      <c r="K48" s="137">
+        <v>4</v>
+      </c>
+      <c r="L48" s="135"/>
+      <c r="M48" s="93">
+        <v>5</v>
+      </c>
+      <c r="V48" s="134"/>
+      <c r="AH48" s="41"/>
+      <c r="AZ48" s="61"/>
+    </row>
+    <row r="49" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G49" s="40">
+        <f>M35</f>
+        <v>52.5</v>
+      </c>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40">
+        <f>X23</f>
+        <v>49</v>
+      </c>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40">
+        <f>AH23</f>
+        <v>48</v>
+      </c>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40">
+        <f>AR22</f>
+        <v>49</v>
+      </c>
+      <c r="V49" s="134"/>
+      <c r="AZ49" s="61"/>
+    </row>
+    <row r="50" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="V50" s="134"/>
+      <c r="AH50" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ50" s="61"/>
+    </row>
+    <row r="51" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="40"/>
+      <c r="K51" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L51" s="40"/>
+      <c r="M51" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="V51" s="134"/>
+      <c r="AH51">
+        <v>48</v>
+      </c>
+      <c r="AZ51" s="61"/>
+    </row>
+    <row r="52" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="93">
+        <v>6</v>
+      </c>
+      <c r="J52" s="135"/>
+      <c r="K52" s="93">
+        <v>7</v>
+      </c>
+      <c r="L52" s="135"/>
+      <c r="M52" s="137">
+        <v>8</v>
+      </c>
+      <c r="V52" s="134"/>
+      <c r="X52" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ52" s="61"/>
+    </row>
+    <row r="53" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="60">
+        <f>X66</f>
+        <v>51.5</v>
+      </c>
+      <c r="J53" s="40"/>
+      <c r="K53" s="60">
+        <f>AH65</f>
+        <v>52</v>
+      </c>
+      <c r="L53" s="40"/>
+      <c r="M53" s="60">
+        <f>AQ65</f>
+        <v>48</v>
+      </c>
+      <c r="V53" s="134"/>
+      <c r="X53" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ53" s="61"/>
+    </row>
+    <row r="54" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="59"/>
+      <c r="V54" s="134"/>
+      <c r="AZ54" s="61"/>
+    </row>
+    <row r="55" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M55" s="47"/>
+      <c r="N55" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="V55" s="134"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z55" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA55" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB55" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC55" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE55" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH55" s="93"/>
+      <c r="AI55" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ55" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK55" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL55" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM55" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO55" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ55" s="93"/>
+      <c r="AR55" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS55" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT55" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU55" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV55" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX55" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ55" s="61"/>
+    </row>
+    <row r="56" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="93">
+        <v>9</v>
+      </c>
+      <c r="M56" s="135"/>
+      <c r="N56" s="138">
+        <v>10</v>
+      </c>
+      <c r="V56" s="134"/>
+      <c r="X56" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y56" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC56" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE56">
+        <f>MIN(Y56:AC56)</f>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI56" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM56" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO56">
+        <f>MIN(AI56:AM56)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR56" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU56" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV56" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX56">
+        <f>MIN(AR56:AV56)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="61"/>
+    </row>
+    <row r="57" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40">
+        <f>AF96</f>
+        <v>53</v>
+      </c>
+      <c r="M57" s="40"/>
+      <c r="N57">
+        <f>AP96</f>
+        <v>48</v>
+      </c>
+      <c r="V57" s="134"/>
+      <c r="X57" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y57" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC57" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" ref="AE57:AE60" si="20">MIN(Y57:AC57)</f>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM57" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" ref="AO57:AO60" si="21">MIN(AI57:AM57)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR57" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT57" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV57" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" ref="AX57:AX60" si="22">MIN(AR57:AV57)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="61"/>
+    </row>
+    <row r="58" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="V58" s="134"/>
+      <c r="X58" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y58" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="Z58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC58" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI58" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM58" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR58" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AS58" s="33">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU58" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV58" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="61"/>
+    </row>
+    <row r="59" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="V59" s="134"/>
+      <c r="X59" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y59" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC59" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI59" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM59" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR59" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU59" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV59" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="61"/>
+    </row>
+    <row r="60" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="V60" s="134"/>
+      <c r="X60" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y60" s="54">
+        <v>6</v>
+      </c>
+      <c r="Z60" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA60" s="55">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC60" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI60" s="54">
+        <v>6</v>
+      </c>
+      <c r="AJ60" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AK60" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL60" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM60" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="21"/>
+        <v>2.5</v>
+      </c>
+      <c r="AQ60" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR60" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS60" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="AT60" s="55">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV60" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="61"/>
+    </row>
+    <row r="61" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="K61" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="V61" s="134"/>
+      <c r="AZ61" s="61"/>
+    </row>
+    <row r="62" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40">
+        <f>SUM(L65+O64+M66+P67+N68)</f>
+        <v>48</v>
+      </c>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="V62" s="134"/>
+      <c r="X62" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y62">
+        <f>MIN(Y56:Y60)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" ref="Z62:AC62" si="23">MIN(Z56:Z60)</f>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AH62" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI62">
+        <f>MIN(AI56:AI60)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" ref="AJ62:AM62" si="24">MIN(AJ56:AJ60)</f>
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR62">
+        <f>MIN(AR56:AR60)</f>
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" ref="AS62:AV62" si="25">MIN(AS56:AS60)</f>
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="61"/>
+    </row>
+    <row r="63" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="M63" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="O63" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="V63" s="134"/>
+      <c r="AZ63" s="61"/>
+    </row>
+    <row r="64" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="M64" s="50">
+        <v>16</v>
+      </c>
+      <c r="N64" s="50">
+        <v>10</v>
+      </c>
+      <c r="O64" s="58">
+        <v>12</v>
+      </c>
+      <c r="P64" s="51">
+        <v>11.5</v>
+      </c>
+      <c r="V64" s="134"/>
+      <c r="X64" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH64" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ64" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ64" s="61"/>
+    </row>
+    <row r="65" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="L65" s="70">
+        <v>12</v>
+      </c>
+      <c r="M65" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="N65" s="33">
+        <v>10</v>
+      </c>
+      <c r="O65" s="33">
+        <v>12</v>
+      </c>
+      <c r="P65" s="53">
+        <v>10.5</v>
+      </c>
+      <c r="V65" s="134"/>
+      <c r="AH65">
+        <f>AH51+AK45+AO60</f>
+        <v>52</v>
+      </c>
+      <c r="AQ65">
+        <f>AH51+AM45+SUM(AR62:AV62)+SUM(AX56:AX60)</f>
+        <v>48</v>
+      </c>
+      <c r="AZ65" s="61"/>
+    </row>
+    <row r="66" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="L66" s="52">
+        <v>12</v>
+      </c>
+      <c r="M66" s="34">
+        <v>10</v>
+      </c>
+      <c r="N66" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="O66" s="33">
+        <v>8</v>
+      </c>
+      <c r="P66" s="53">
+        <v>7.5</v>
+      </c>
+      <c r="V66" s="134"/>
+      <c r="X66">
+        <f>K49+AJ45+SUM(Y62:AC62)+SUM(AE56:AE60)</f>
+        <v>51.5</v>
+      </c>
+      <c r="AZ66" s="61"/>
+    </row>
+    <row r="67" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="L67" s="52">
+        <v>16</v>
+      </c>
+      <c r="M67" s="33">
+        <v>12</v>
+      </c>
+      <c r="N67" s="33">
+        <v>10</v>
+      </c>
+      <c r="O67" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" s="69">
+        <v>8.5</v>
+      </c>
+      <c r="V67" s="134"/>
+      <c r="AH67" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ67" s="61"/>
+    </row>
+    <row r="68" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="L68" s="54">
+        <v>13.5</v>
+      </c>
+      <c r="M68" s="55">
+        <v>10.5</v>
+      </c>
+      <c r="N68" s="71">
+        <v>5.5</v>
+      </c>
+      <c r="O68" s="55">
+        <v>9.5</v>
+      </c>
+      <c r="P68" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="V68" s="134"/>
+      <c r="X68" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ68" s="61"/>
+    </row>
+    <row r="69" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="V69" s="134"/>
+      <c r="AZ69" s="61"/>
+    </row>
+    <row r="70" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="V70" s="134"/>
+      <c r="X70" s="93"/>
+      <c r="Y70" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z70" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA70" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB70" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC70" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH70" s="93"/>
+      <c r="AI70" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ70" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK70" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL70" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM70" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ70" s="61"/>
+    </row>
+    <row r="71" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="V71" s="134"/>
+      <c r="X71" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y71" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC71" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH71" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI71" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM71" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ71" s="61"/>
+    </row>
+    <row r="72" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="V72" s="134"/>
+      <c r="X72" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y72" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA72" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC72" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AH72" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI72" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM72" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="AZ72" s="61"/>
+    </row>
+    <row r="73" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="V73" s="134"/>
+      <c r="X73" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y73" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA73" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB73" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC73" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI73" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ73" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL73" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM73" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="61"/>
+    </row>
+    <row r="74" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="V74" s="134"/>
+      <c r="X74" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y74" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC74" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH74" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI74" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL74" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM74" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ74" s="61"/>
+    </row>
+    <row r="75" spans="7:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="V75" s="134"/>
+      <c r="X75" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y75" s="54">
+        <f>6-2.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z75" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA75" s="55">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC75" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH75" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI75" s="54">
+        <f>6-2.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="AJ75" s="55">
+        <f>2.5-2.5</f>
+        <v>0</v>
+      </c>
+      <c r="AK75" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL75" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM75" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ75" s="61"/>
+    </row>
+    <row r="76" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="V76" s="134"/>
+    </row>
+    <row r="77" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="V77" s="134"/>
+    </row>
+    <row r="78" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="V78" s="134"/>
+    </row>
+    <row r="79" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="V79" s="134"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="59"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="59"/>
+      <c r="AB79" s="59"/>
+      <c r="AC79" s="59"/>
+      <c r="AD79" s="59"/>
+      <c r="AE79" s="59"/>
+      <c r="AF79" s="59"/>
+      <c r="AG79" s="59"/>
+      <c r="AH79" s="59"/>
+      <c r="AI79" s="59"/>
+      <c r="AJ79" s="59"/>
+      <c r="AK79" s="59"/>
+      <c r="AL79" s="59"/>
+      <c r="AM79" s="59"/>
+      <c r="AN79" s="59"/>
+      <c r="AO79" s="59"/>
+      <c r="AP79" s="59"/>
+      <c r="AQ79" s="59"/>
+      <c r="AR79" s="59"/>
+      <c r="AS79" s="59"/>
+      <c r="AT79" s="59"/>
+      <c r="AU79" s="59"/>
+      <c r="AV79" s="59"/>
+      <c r="AW79" s="59"/>
+      <c r="AX79" s="59"/>
+    </row>
+    <row r="80" spans="7:52" x14ac:dyDescent="0.35">
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="V80" s="134"/>
+      <c r="W80" s="59"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="59"/>
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="59"/>
+      <c r="AB80" s="59"/>
+      <c r="AC80" s="59"/>
+      <c r="AD80" s="59"/>
+      <c r="AE80" s="59"/>
+      <c r="AF80" s="59"/>
+      <c r="AG80" s="59"/>
+      <c r="AH80" s="59"/>
+      <c r="AI80" s="59"/>
+      <c r="AJ80" s="59"/>
+      <c r="AK80" s="59"/>
+      <c r="AL80" s="59"/>
+      <c r="AM80" s="59"/>
+      <c r="AN80" s="59"/>
+      <c r="AO80" s="59"/>
+      <c r="AP80" s="59"/>
+      <c r="AQ80" s="59"/>
+      <c r="AR80" s="59"/>
+      <c r="AS80" s="59"/>
+      <c r="AT80" s="59"/>
+      <c r="AU80" s="59"/>
+      <c r="AV80" s="59"/>
+      <c r="AW80" s="59"/>
+      <c r="AX80" s="59"/>
+    </row>
+    <row r="81" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="V81" s="134"/>
+    </row>
+    <row r="82" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="V82" s="134"/>
+    </row>
+    <row r="83" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="V83" s="134"/>
+    </row>
+    <row r="84" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="V84" s="134"/>
+      <c r="W84" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="7:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="AM85" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW85" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="7:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="W86" s="93"/>
+      <c r="X86" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y86" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z86" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA86" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB86" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF86" s="93"/>
+      <c r="AG86" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH86" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI86" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ86" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK86" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM86">
+        <f>MIN(AG86:AK86)</f>
+        <v>0</v>
+      </c>
+      <c r="AP86" s="93"/>
+      <c r="AQ86" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR86" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS86" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT86" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU86" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW86">
+        <f>MIN(AQ86:AU86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="W87" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="X87" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB87" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF87" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG87" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK87" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM87">
+        <f t="shared" ref="AM87:AM90" si="26">MIN(AG87:AK87)</f>
+        <v>0</v>
+      </c>
+      <c r="AP87" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ87" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW87">
+        <f t="shared" ref="AW87:AW90" si="27">MIN(AQ87:AU87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="W88" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="X88" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z88" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB88" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF88" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG88" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI88" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK88" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM88">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AP88" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU88" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW88">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="W89" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="X89" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="Y89" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB89" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF89" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG89" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AH89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK89" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="AP89" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ89" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR89" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU89" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="W90" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="X90" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB90" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF90" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG90" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK90" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AP90" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ90" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU90" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="W91" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="X91" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y91" s="55">
+        <v>2.5</v>
+      </c>
+      <c r="Z91" s="55">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB91" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF91" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG91" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK91" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP91" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ91" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT91" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU91" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="AF93" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG93">
+        <f>MIN(AG87:AG91)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AH93">
+        <f t="shared" ref="AH93:AK93" si="28">MIN(AH87:AH91)</f>
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AP93" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ93">
+        <f>MIN(AQ87:AQ91)</f>
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <f t="shared" ref="AR93:AU93" si="29">MIN(AR87:AR91)</f>
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="W94" t="str">
+        <f>AQ64</f>
+        <v>Omkostninger</v>
+      </c>
+    </row>
+    <row r="95" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="W95">
+        <f>AQ65</f>
+        <v>48</v>
+      </c>
+      <c r="AF95" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP95" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="7:49" x14ac:dyDescent="0.35">
+      <c r="AF96">
+        <f>W95+2.5+Y91</f>
+        <v>53</v>
+      </c>
+      <c r="AP96">
+        <f>W95+Z91+SUM(AQ93:AU93)+SUM(AW86:AW90)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="42:42" x14ac:dyDescent="0.35">
+      <c r="AP98" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
